--- a/追加機能資料/テスト/テスト仕様書/iOS_追加機能テスト仕様書.xlsx
+++ b/追加機能資料/テスト/テスト仕様書/iOS_追加機能テスト仕様書.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="98">
   <si>
     <t>項目番号</t>
   </si>
@@ -505,22 +505,6 @@
     <t>未会員モーダルテスト</t>
     <rPh sb="0" eb="3">
       <t>ミカイイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新規登録ボタン押下でログイン画面へ遷移すること</t>
-    <rPh sb="0" eb="4">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1142,6 +1126,62 @@
     </rPh>
     <rPh sb="43" eb="45">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新着情報のアイコンがオレンジになっている</t>
+    <rPh sb="0" eb="4">
+      <t>シンチャクジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字色が黒い</t>
+    <rPh sb="0" eb="3">
+      <t>モジイロ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録画面へボタン押下でログイン画面へ遷移すること</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインボタンが押下できない</t>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン」ボタンの文言が「登録画面へ」になっている</t>
+    <rPh sb="10" eb="12">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1318,7 +1358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1349,43 +1389,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -1402,15 +1406,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1434,6 +1429,54 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1761,28 +1804,28 @@
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="12"/>
       <c r="C2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="13"/>
       <c r="C4" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="29"/>
-      <c r="C5" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="24" x14ac:dyDescent="0.2">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="13.8" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1798,323 +1841,385 @@
       <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="J7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="L7" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" s="15" customFormat="1" ht="132" x14ac:dyDescent="0.2">
+      <c r="B8" s="16">
+        <v>1</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="16">
+        <v>2</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+    </row>
+    <row r="10" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="16">
+        <v>3</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+    </row>
+    <row r="11" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="27">
+        <v>4</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+    </row>
+    <row r="12" spans="2:12" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="B12" s="27">
         <v>5</v>
       </c>
-      <c r="K7" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" s="45" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" s="27" customFormat="1" ht="132" x14ac:dyDescent="0.2">
-      <c r="B8" s="28">
-        <v>1</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="33" t="s">
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="27">
+        <v>6</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="27">
+        <v>7</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="2:12" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="B15" s="27">
+        <v>8</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+    </row>
+    <row r="16" spans="2:12" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="B16" s="27">
+        <v>9</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="27">
+        <v>10</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+    </row>
+    <row r="18" spans="2:12" s="15" customFormat="1" ht="132" x14ac:dyDescent="0.2">
+      <c r="B18" s="27">
+        <v>11</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+    </row>
+    <row r="19" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="27">
+        <v>12</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="28">
-        <v>2</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="33" t="s">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+    </row>
+    <row r="20" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="27">
+        <v>13</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="28">
-        <v>3</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="33" t="s">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+    </row>
+    <row r="21" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="27">
+        <v>14</v>
+      </c>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-    </row>
-    <row r="11" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="42">
-        <v>4</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="33" t="s">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+    </row>
+    <row r="22" spans="2:12" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="B22" s="27">
+        <v>15</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-    </row>
-    <row r="12" spans="2:12" s="27" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="B12" s="42">
-        <v>5</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="33" t="s">
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+    </row>
+    <row r="23" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="27">
+        <v>16</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-    </row>
-    <row r="13" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="42">
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+    </row>
+    <row r="24" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="27">
+        <v>17</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+    </row>
+    <row r="25" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="27">
+        <v>18</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+    </row>
+    <row r="26" spans="2:12" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="B26" s="27">
+        <v>19</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+    </row>
+    <row r="27" spans="2:12" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="B27" s="27">
+        <v>20</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="27">
+        <v>21</v>
+      </c>
+      <c r="C28" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-    </row>
-    <row r="14" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="42">
-        <v>7</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-    </row>
-    <row r="15" spans="2:12" s="27" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="B15" s="42">
-        <v>8</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-    </row>
-    <row r="16" spans="2:12" s="27" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="B16" s="42">
-        <v>9</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="42">
-        <v>10</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-    </row>
-    <row r="18" spans="2:9" s="27" customFormat="1" ht="132" x14ac:dyDescent="0.2">
-      <c r="B18" s="42">
-        <v>11</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-    </row>
-    <row r="19" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="42">
-        <v>12</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-    </row>
-    <row r="20" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="42">
-        <v>13</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-    </row>
-    <row r="21" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="42">
-        <v>14</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-    </row>
-    <row r="22" spans="2:9" s="27" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="B22" s="42">
-        <v>15</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-    </row>
-    <row r="23" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="42">
-        <v>16</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-    </row>
-    <row r="24" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="42">
-        <v>17</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-    </row>
-    <row r="25" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="42">
-        <v>18</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-    </row>
-    <row r="26" spans="2:9" s="27" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="B26" s="42">
-        <v>19</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-    </row>
-    <row r="27" spans="2:9" s="27" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="B27" s="42">
-        <v>20</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="42">
-        <v>21</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="41" t="s">
         <v>16</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -2124,27 +2229,33 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B29" s="42">
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+    </row>
+    <row r="29" spans="2:12" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B29" s="27">
         <v>22</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="41"/>
       <c r="E29" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="42">
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="27">
         <v>23</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="14"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="41"/>
       <c r="E30" s="7" t="s">
         <v>8</v>
       </c>
@@ -2152,13 +2263,16 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="42">
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="27">
         <v>24</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="18" t="s">
+      <c r="C31" s="39"/>
+      <c r="D31" s="38" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -2168,13 +2282,16 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="42">
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="27">
         <v>25</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="7" t="s">
         <v>10</v>
       </c>
@@ -2182,13 +2299,16 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="42">
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B33" s="27">
         <v>26</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="7" t="s">
         <v>12</v>
       </c>
@@ -2196,13 +2316,16 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="42">
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" s="27">
         <v>27</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="7" t="s">
         <v>11</v>
       </c>
@@ -2210,15 +2333,18 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="2:9" ht="66" x14ac:dyDescent="0.2">
-      <c r="B35" s="42">
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+    </row>
+    <row r="35" spans="2:12" ht="66" x14ac:dyDescent="0.2">
+      <c r="B35" s="27">
         <v>28</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="41" t="s">
         <v>16</v>
       </c>
       <c r="E35" s="9" t="s">
@@ -2228,13 +2354,16 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="42">
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="27">
         <v>29</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="7" t="s">
         <v>18</v>
       </c>
@@ -2242,12 +2371,15 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="42">
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37" s="27">
         <v>30</v>
       </c>
-      <c r="C37" s="14"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="8" t="s">
         <v>19</v>
       </c>
@@ -2258,15 +2390,18 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="42">
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="27">
         <v>31</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="35" t="s">
         <v>33</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -2276,13 +2411,16 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="42">
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="27">
         <v>32</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="16"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="36"/>
       <c r="E39" s="7" t="s">
         <v>23</v>
       </c>
@@ -2290,13 +2428,16 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="42">
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B40" s="27">
         <v>33</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="16"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="36"/>
       <c r="E40" s="7" t="s">
         <v>34</v>
       </c>
@@ -2304,13 +2445,16 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="42">
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B41" s="27">
         <v>34</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="17"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="37"/>
       <c r="E41" s="7" t="s">
         <v>35</v>
       </c>
@@ -2318,12 +2462,15 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B42" s="42">
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+    </row>
+    <row r="42" spans="2:12" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B42" s="27">
         <v>35</v>
       </c>
-      <c r="C42" s="19"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="11" t="s">
         <v>38</v>
       </c>
@@ -2334,31 +2481,39 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="42">
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B43" s="27">
         <v>36</v>
       </c>
-      <c r="C43" s="20"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="6"/>
+      <c r="F43" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="42">
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B44" s="27">
         <v>37</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="46" t="s">
         <v>26</v>
       </c>
       <c r="E44" s="7" t="s">
@@ -2368,13 +2523,16 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="42">
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B45" s="27">
         <v>38</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="21"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="46"/>
       <c r="E45" s="7" t="s">
         <v>23</v>
       </c>
@@ -2382,13 +2540,16 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="42">
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B46" s="27">
         <v>39</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="21"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="46"/>
       <c r="E46" s="7" t="s">
         <v>24</v>
       </c>
@@ -2396,13 +2557,16 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="42">
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B47" s="27">
         <v>40</v>
       </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="21"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="46"/>
       <c r="E47" s="7" t="s">
         <v>25</v>
       </c>
@@ -2410,99 +2574,120 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="42">
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B48" s="27">
         <v>41</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="15" t="s">
+      <c r="C48" s="41"/>
+      <c r="D48" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="42">
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B49" s="27">
         <v>42</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="16"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="36"/>
       <c r="E49" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="42">
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B50" s="27">
         <v>43</v>
       </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="16"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="36"/>
       <c r="E50" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="42">
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B51" s="27">
         <v>44</v>
       </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="16"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="36"/>
       <c r="E51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="42">
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B52" s="27">
         <v>45</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="16"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="36"/>
       <c r="E52" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="42">
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B53" s="27">
         <v>46</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="17"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="37"/>
       <c r="E53" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="2:9" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="B54" s="42">
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+    </row>
+    <row r="54" spans="2:12" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B54" s="27">
         <v>47</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="18" t="s">
+      <c r="C54" s="41"/>
+      <c r="D54" s="38" t="s">
         <v>44</v>
       </c>
       <c r="E54" s="9" t="s">
@@ -2512,41 +2697,50 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="42">
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B55" s="27">
         <v>48</v>
       </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="19"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="39"/>
       <c r="E55" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="42">
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B56" s="27">
         <v>49</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="19"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="39"/>
       <c r="E56" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="42">
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B57" s="27">
         <v>50</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="19"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="39"/>
       <c r="E57" s="9" t="s">
         <v>41</v>
       </c>
@@ -2554,73 +2748,90 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="42">
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B58" s="27">
         <v>51</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="19"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="39"/>
       <c r="E58" s="9" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="2:9" ht="66" x14ac:dyDescent="0.2">
-      <c r="B59" s="42">
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+    </row>
+    <row r="59" spans="2:12" ht="66" x14ac:dyDescent="0.2">
+      <c r="B59" s="27">
         <v>52</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="F59" s="43" t="s">
-        <v>93</v>
+      <c r="C59" s="41"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="42">
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B60" s="27">
         <v>53</v>
       </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F60" s="6"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="2:9" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="B61" s="42">
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+    </row>
+    <row r="61" spans="2:12" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B61" s="27">
         <v>54</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14" t="s">
+      <c r="C61" s="41"/>
+      <c r="D61" s="41" t="s">
         <v>43</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="42">
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B62" s="27">
         <v>55</v>
       </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
       <c r="E62" s="9" t="s">
         <v>41</v>
       </c>
@@ -2628,340 +2839,411 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="42">
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+    </row>
+    <row r="63" spans="2:12" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B63" s="27">
         <v>56</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
       <c r="E63" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F63" s="10"/>
+      <c r="F63" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="42">
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B64" s="27">
         <v>57</v>
       </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
       <c r="E64" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="42">
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B65" s="27">
         <v>58</v>
       </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="E65" s="38" t="s">
+      <c r="C65" s="41"/>
+      <c r="D65" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" s="23" t="s">
         <v>21</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="42">
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B66" s="27">
         <v>59</v>
       </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="38" t="s">
+      <c r="C66" s="41"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="23" t="s">
         <v>23</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="42">
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B67" s="27">
         <v>60</v>
       </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="38" t="s">
+      <c r="C67" s="41"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="23" t="s">
         <v>24</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="42">
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B68" s="27">
         <v>61</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="38" t="s">
-        <v>53</v>
+      <c r="C68" s="41"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="42">
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B69" s="27">
         <v>62</v>
       </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="38" t="s">
+      <c r="C69" s="41"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="23" t="s">
         <v>25</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B70" s="42">
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B70" s="27">
         <v>63</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="38" t="s">
+      <c r="E70" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="42">
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B71" s="27">
         <v>64</v>
       </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="38" t="s">
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="42">
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B72" s="27">
         <v>65</v>
       </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="39" t="s">
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="24" t="s">
         <v>28</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="42">
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="27"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B73" s="27">
         <v>66</v>
       </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="39" t="s">
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="24" t="s">
         <v>29</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B74" s="42">
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B74" s="27">
         <v>67</v>
       </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="38" t="s">
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="23" t="s">
         <v>8</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B75" s="42">
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B75" s="27">
         <v>68</v>
       </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14" t="s">
+      <c r="C75" s="41"/>
+      <c r="D75" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E75" s="38" t="s">
+      <c r="E75" s="23" t="s">
         <v>32</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B76" s="42">
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="27"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B76" s="27">
         <v>69</v>
       </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="38" t="s">
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="23" t="s">
         <v>10</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
-    </row>
-    <row r="77" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="24"/>
-      <c r="B77" s="42">
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+    </row>
+    <row r="77" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="14"/>
+      <c r="B77" s="27">
         <v>70</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="C77" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D77" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="22" t="s">
-        <v>64</v>
-      </c>
       <c r="E77" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
-    </row>
-    <row r="78" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="24"/>
-      <c r="B78" s="42">
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+    </row>
+    <row r="78" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="14"/>
+      <c r="B78" s="27">
         <v>71</v>
       </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="31" t="s">
-        <v>67</v>
+      <c r="C78" s="42"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
-    </row>
-    <row r="79" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="24"/>
-      <c r="B79" s="42">
+      <c r="J78" s="27"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="27"/>
+    </row>
+    <row r="79" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="14"/>
+      <c r="B79" s="27">
         <v>72</v>
       </c>
-      <c r="C79" s="25"/>
-      <c r="D79" s="22" t="s">
-        <v>68</v>
+      <c r="C79" s="42"/>
+      <c r="D79" s="43" t="s">
+        <v>67</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
-    </row>
-    <row r="80" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="24"/>
-      <c r="B80" s="42">
+      <c r="J79" s="27"/>
+      <c r="K79" s="27"/>
+      <c r="L79" s="27"/>
+    </row>
+    <row r="80" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="14"/>
+      <c r="B80" s="27">
         <v>73</v>
       </c>
-      <c r="C80" s="25"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="31" t="s">
-        <v>67</v>
+      <c r="C80" s="42"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
-    </row>
-    <row r="81" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="24"/>
-      <c r="B81" s="42">
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="27"/>
+    </row>
+    <row r="81" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="14"/>
+      <c r="B81" s="27">
         <v>74</v>
       </c>
-      <c r="C81" s="25"/>
-      <c r="D81" s="26" t="s">
-        <v>69</v>
+      <c r="C81" s="42"/>
+      <c r="D81" s="44" t="s">
+        <v>68</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
-    </row>
-    <row r="82" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="24"/>
-      <c r="B82" s="42">
+      <c r="J81" s="27"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="27"/>
+    </row>
+    <row r="82" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="14"/>
+      <c r="B82" s="27">
         <v>75</v>
       </c>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="31" t="s">
-        <v>67</v>
+      <c r="C82" s="42"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
-    </row>
-    <row r="83" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="24"/>
-      <c r="B83" s="42">
+      <c r="J82" s="27"/>
+      <c r="K82" s="27"/>
+      <c r="L82" s="27"/>
+    </row>
+    <row r="83" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="14"/>
+      <c r="B83" s="27">
         <v>76</v>
       </c>
-      <c r="C83" s="25"/>
-      <c r="D83" s="23" t="s">
+      <c r="C83" s="42"/>
+      <c r="D83" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
-    </row>
-    <row r="84" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="24"/>
-      <c r="B84" s="42">
+      <c r="J83" s="27"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="27"/>
+    </row>
+    <row r="84" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="14"/>
+      <c r="B84" s="27">
         <v>77</v>
       </c>
-      <c r="C84" s="25"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="31" t="s">
-        <v>67</v>
+      <c r="C84" s="42"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -2981,14 +3263,14 @@
     <mergeCell ref="D28:D30"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="D48:D53"/>
     <mergeCell ref="D38:D41"/>
     <mergeCell ref="C38:C43"/>
     <mergeCell ref="D31:D34"/>
     <mergeCell ref="C28:C34"/>
     <mergeCell ref="D61:D64"/>
     <mergeCell ref="D54:D60"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="D48:D53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
